--- a/test-files/-Updated- Musical Empowerment - Teacher Application (Responses) (Recovered).xlsx
+++ b/test-files/-Updated- Musical Empowerment - Teacher Application (Responses) (Recovered).xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Form Responses 1" state="visible" r:id="rId3"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>Timestamp</t>
   </si>
@@ -206,28 +214,124 @@
   </si>
   <si>
     <t>some</t>
+  </si>
+  <si>
+    <t>no first name</t>
+  </si>
+  <si>
+    <t>no last name</t>
+  </si>
+  <si>
+    <t>no returning student name</t>
+  </si>
+  <si>
+    <t>no returning student instrument</t>
+  </si>
+  <si>
+    <t>no keep returning student selected</t>
+  </si>
+  <si>
+    <t>no instruemnt array</t>
+  </si>
+  <si>
+    <t>no instrument experience array</t>
+  </si>
+  <si>
+    <t>no gender preference</t>
+  </si>
+  <si>
+    <t>no age preference</t>
+  </si>
+  <si>
+    <t>no level preference</t>
+  </si>
+  <si>
+    <t>no language array</t>
+  </si>
+  <si>
+    <t>no crime record</t>
+  </si>
+  <si>
+    <t>no available times</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>poli sci</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>ms@live.unc.edu</t>
+  </si>
+  <si>
+    <t>My Student</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>bad available times</t>
+  </si>
+  <si>
+    <t>works - no returning student</t>
+  </si>
+  <si>
+    <t>works - has returning student</t>
+  </si>
+  <si>
+    <t>ints instead of strings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -243,289 +347,1721 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="B3" activeCell="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="29" width="21.57"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="R1">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="U1">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="V1">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="W1">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="X1">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="Y1">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Z1">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="AA1">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AB1">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AC1">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c s="2" r="A2">
-        <v>42070.60468988426</v>
-      </c>
-      <c t="s" s="1" r="B2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="1" r="C2">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="1" r="D2">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="1" r="E2">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="1" r="F2">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="1" r="G2">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="1" r="H2">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="1" r="I2">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="1" r="J2">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="1" r="K2">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="1" r="L2">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="1" r="M2">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="1" r="N2">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="1" r="O2">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="1" r="P2">
+      <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="1" r="Q2">
+      <c r="Q2" s="1" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="1" r="R2">
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="1" r="T2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="V2">
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="1" r="W2">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="1" r="X2">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="1" r="Y2">
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="1" r="Z2">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="AA2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AB2">
+      <c r="AA2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="1" r="AC2">
+      <c r="AC2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c s="2" r="A3">
-        <v>42070.60808480324</v>
-      </c>
-      <c t="s" s="1" r="B3">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="1" r="C3">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="1" r="D3">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="1" r="E3">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="1" r="F3">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="1" r="G3">
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="1" r="H3">
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="1" r="I3">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="M3">
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="1" r="N3">
+      <c r="N3" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="1" r="O3">
+      <c r="O3" s="1" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="1" r="P3">
+      <c r="P3" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="1" r="Q3">
+      <c r="Q3" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="1" r="T3">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="V3">
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="1" r="W3">
+      <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="1" r="X3">
+      <c r="X3" s="1" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="1" r="Y3">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="Z3">
+      <c r="Y3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="AA3">
+      <c r="AA3" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="AB3">
+      <c r="AB3" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="AC3">
+      <c r="AC3" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="T14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="Y15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="F17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="H17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="J17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="K17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="L17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="O17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="P17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="R17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="S17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="T17" s="4">
+        <v>9949</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4">
+        <v>9949</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>9949</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>9949</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>9949</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>9949</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>9949</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G15" r:id="rId10"/>
+    <hyperlink ref="G16" r:id="rId11"/>
+    <hyperlink ref="G5" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>